--- a/medicine/Psychotrope/Enzyme_malolactique/Enzyme_malolactique.xlsx
+++ b/medicine/Psychotrope/Enzyme_malolactique/Enzyme_malolactique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' enzyme malolactique est une enzyme capable de transformer l’acide malique en acide lactique, notamment lors de la fermentation malolactique en œnologie.
 </t>
@@ -511,13 +523,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">structure en dimère ou tétramère, ses sous-unités font 60 kDa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">structure en dimère ou tétramère, ses sous-unités font 60 kDa.
 inductible en présence de malate.
 inhibition de son action par les acides carboxyliques, l'alcool, et les polyphénols.
 localisation dans le cytoplasme des bactéries.
-pH optimum de fonctionnement : pH = 5,9[2].
+pH optimum de fonctionnement : pH = 5,9.
 Ces caractéristiques de fonctionnement ne font pas toujours du vin un milieu optimal (présence d'alcool, présence de polyphénols, …), mais l'enzyme y est cependant efficace, car le pH de la bactérie lactique se situe autour de pH=6,0, la différence avec le pH du vin (pH=3 à 4) activant un flux protonique vers la bactérie, ce qui lui permet d'y trouver une source d'énergie sous forme d'ATP.
 </t>
         </is>
